--- a/databases/Orcus - Monsters.xlsx
+++ b/databases/Orcus - Monsters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Obsidian\Tabletop games\d20 System or D&amp;D-esque\2021 Orcus - 4E clone\GitHub\orcus\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F640DE1-AE41-49C7-854A-34F4B5E2EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA69A03-FB17-47BE-B3F9-2F5FFAA88F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4358" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4419" uniqueCount="1613">
   <si>
     <t>Chapter</t>
   </si>
@@ -4855,6 +4855,48 @@
   </si>
   <si>
     <t>Use two gaze attacks of your choice. Refreshes when evil eye first Staggered.</t>
+  </si>
+  <si>
+    <t>Desiccated Husk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Blood Sweats Aura 4:* A living creature that ends its turn in the aura suffers 3 damage. </t>
+  </si>
+  <si>
+    <t>+6 vs AC</t>
+  </si>
+  <si>
+    <t>1d12+4 damage.</t>
+  </si>
+  <si>
+    <t>Reformation</t>
+  </si>
+  <si>
+    <t>MA001</t>
+  </si>
+  <si>
+    <t>Bloody Bones</t>
+  </si>
+  <si>
+    <t>Wicked Claw</t>
+  </si>
+  <si>
+    <t>1d12+4 damage and 5 persistent damage (save ends).</t>
+  </si>
+  <si>
+    <t>Slide Away</t>
+  </si>
+  <si>
+    <t>Shift 6.</t>
+  </si>
+  <si>
+    <t>This creature appears as a skeletal humanoid with bits of muscle and sinew hanging from its body. Four long, sinewy tendrils writhe from its midsection. The entire creature constantly oozes a mixture of blood and mucus. Its eye sockets are hollow and show no pupils.</t>
+  </si>
+  <si>
+    <t>TOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep track of all damage the desiccated husk does, including through its aura. If damage done ever exceeds 22, that desiccated husk is replaced by a bloody bones as an immediate (react) action. Add 44 to the desiccated husk's current HP to determine the bloody bones' current HP. A bloody bones created in this way still only gives 150 XP for being defeated. </t>
   </si>
 </sst>
 </file>
@@ -5198,13 +5240,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DU150"/>
+  <dimension ref="A1:DU152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AV129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BD145" sqref="BD145"/>
+      <selection pane="bottomRight" activeCell="AQ151" sqref="AQ151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28911,6 +28953,298 @@
         <v>1572</v>
       </c>
     </row>
+    <row r="151" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="H151" s="3">
+        <v>3</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J151" s="3">
+        <v>150</v>
+      </c>
+      <c r="K151" s="3">
+        <v>0</v>
+      </c>
+      <c r="L151" s="3">
+        <v>1</v>
+      </c>
+      <c r="M151" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O151" s="3">
+        <v>44</v>
+      </c>
+      <c r="P151" s="3">
+        <v>22</v>
+      </c>
+      <c r="R151" s="3">
+        <v>15</v>
+      </c>
+      <c r="S151" s="3">
+        <v>16</v>
+      </c>
+      <c r="T151" s="3">
+        <v>14</v>
+      </c>
+      <c r="U151" s="3">
+        <v>15</v>
+      </c>
+      <c r="W151" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X151" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y151" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="Z151" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA151" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="AB151" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC151" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AD151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE151" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG151" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH151" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="AK151" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="AP151" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="DF151" s="3">
+        <v>14</v>
+      </c>
+      <c r="DG151" s="3">
+        <v>10</v>
+      </c>
+      <c r="DH151" s="3">
+        <v>8</v>
+      </c>
+      <c r="DI151" s="3">
+        <v>14</v>
+      </c>
+      <c r="DJ151" s="3">
+        <v>10</v>
+      </c>
+      <c r="DK151" s="3">
+        <v>17</v>
+      </c>
+      <c r="DN151" s="3">
+        <v>0</v>
+      </c>
+      <c r="DO151" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="DP151" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="DQ151" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="DR151" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="DS151" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="DT151" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="DU151" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="152" spans="1:125" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="H152" s="3">
+        <v>3</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J152" s="3">
+        <v>300</v>
+      </c>
+      <c r="K152" s="3">
+        <v>2</v>
+      </c>
+      <c r="L152" s="3">
+        <v>2</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="O152" s="3">
+        <v>88</v>
+      </c>
+      <c r="P152" s="3">
+        <v>44</v>
+      </c>
+      <c r="R152" s="3">
+        <v>15</v>
+      </c>
+      <c r="S152" s="3">
+        <v>16</v>
+      </c>
+      <c r="T152" s="3">
+        <v>14</v>
+      </c>
+      <c r="U152" s="3">
+        <v>15</v>
+      </c>
+      <c r="W152" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="X152" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y152" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="Z152" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA152" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="AB152" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC152" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="AD152" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE152" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG152" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="AH152" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="AK152" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="AL152" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="AM152" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP152" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="DF152" s="3">
+        <v>14</v>
+      </c>
+      <c r="DG152" s="3">
+        <v>10</v>
+      </c>
+      <c r="DH152" s="3">
+        <v>12</v>
+      </c>
+      <c r="DI152" s="3">
+        <v>14</v>
+      </c>
+      <c r="DJ152" s="3">
+        <v>13</v>
+      </c>
+      <c r="DK152" s="3">
+        <v>17</v>
+      </c>
+      <c r="DN152" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="DO152" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="DP152" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="DQ152" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="DR152" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="DS152" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="DT152" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="DU152" s="3" t="s">
+        <v>1510</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
